--- a/artfynd/A 5454-2022.xlsx
+++ b/artfynd/A 5454-2022.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>663734.7633207544</v>
+        <v>663735</v>
       </c>
       <c r="R2" t="n">
-        <v>6710544.140069315</v>
+        <v>6710544</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 5454-2022.xlsx
+++ b/artfynd/A 5454-2022.xlsx
@@ -683,7 +683,7 @@
         <v>111947297</v>
       </c>
       <c r="B2" t="n">
-        <v>85253</v>
+        <v>85374</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 5454-2022.xlsx
+++ b/artfynd/A 5454-2022.xlsx
@@ -683,7 +683,7 @@
         <v>111947297</v>
       </c>
       <c r="B2" t="n">
-        <v>85374</v>
+        <v>85388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
